--- a/public/template_kategori.xlsx
+++ b/public/template_kategori.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7620"/>
+    <workbookView windowWidth="9390" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>kategori_kode</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Alat Tulis</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>Kesehatan</t>
   </si>
 </sst>
 </file>
@@ -1191,13 +1197,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
@@ -1219,6 +1225,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
